--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&6.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&6.xlsx
@@ -9,6 +9,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="163">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -41,6 +42,474 @@
   </si>
   <si>
     <t xml:space="preserve">2.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-708</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Build</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not able to build the source code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bug</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fixed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Closed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-651</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Configuration 2 does not declare optional imports in OSGI correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-622</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Format</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Writing INI file, keys with . become ..</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Resolved</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-593</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Internal Server Error in Download area</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-509</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maven central maven-metadata.xml contains only a small subset of available versions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-491</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XMLConfiguration.XMLBuilderVisitor.listDelimiter initial value is always overridden</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-138</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] HierarchicalConfigurationConverter has problems with attributes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-137</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Can't add a new property as an attribute in XMLConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-135</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Invalid resource names in XMLConfiguration generate a NPE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-134</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] SubsetConfiguration.clear() throws a ConcurrentModificationException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-133</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration][patch] Replace AbstractConfiguration.testBoolean with BooleanUtils.toBooleanObject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-132</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] HierarchicalConfigurationXMLReader stores comments as text nodes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-130</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] FileConfiguration - Save problem when embedded spaces are in the path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-129</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Comma separation in Strings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-127</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Lists in a CompositeConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-125</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] setting non-string values in DatabaseConfiguration always throws ClassCastException</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-123</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ConfigurationConverter.getProperties() and interpolate behaviour inconsequent with getList()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-122</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] project.xml contains bad dependencies</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-121</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Included properties w/ relative path fails in v1.1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-120</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Missing classes after move to commons proper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-119</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ConfigurationFactory auto save overwrites properties file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-118</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Loading a configuration twice creates duplicate properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-117</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] MapConfiguration doesn't support multiple-valued properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-116</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration doesn't support attribute names with a dot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-115</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration]Documentation updates</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-114</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Saving XML configurations to another file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] JNDI prefix can't be changed once getContext() has been called</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] addProperty throws a NPE in XMLConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-109</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration partially supports List properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-106</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration.save() does not keep element hierarchy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] setUrl and getUrl for FileConfiguration are incorrect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-104</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Preserve file structure (line comments) when re-saving properties file</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-103</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] subset() method alters XMLConfiguration when invoked</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-101</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] testSaveInvalidURL in TestFileConfiguration fails</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-100</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[Configuration] XMLConfiguration.save() drops&lt;! DOCTYPE... &gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-99</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] PropertiesConfiguration doesn't throw exception when path is directory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-97</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration does not correctly handle comma delimited lists</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-96</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] File based configurations throw NPE when file does not exist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-92</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration.clearTree does not Auto Save.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-91</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Problem adding property XMLConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-88</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ClassNotFoundException on Sun App Server</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-87</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] getKeys(String) broken in JNDIConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-86</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] NullPointerException thrown by AbstractFileConfiguration.getFile()</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-85</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration does not handle tag names with dots correctly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ConfigurationUtils.copy() does not work for XMLConfigurations with repeated keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-83</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] properties file with include in subdir does not work as expected</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-82</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ServletRequestConfiguration getList null pointer exception</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-81</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] resolveContainerStore doesn't work with arrays</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ConfigurationFactory not working as expected with include path resolution</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-76</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Invalid subsets</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-75</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] HierarchicalXMLConfiguration.setProperty() deletes subelements</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-74</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] getKeys() in HierarchicalConfiguration doesn't preserve the order of the keys</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-71</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Fake "resources" dependency kills Maven2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] FileChangedReloadingStrategy cannot be resolved or is not a type</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-65</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration cannot load from a jar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-63</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ConfigurationUtils.locate throws NullPointerException if the context ClassLoader is null</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-57</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Do not fetch resources-1.0.jar in build.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-47</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ConfigurationFactory loading from classpath issue</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Composite configuration with JNDI logs failed access as ERROR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-32</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration.save() doesn't escape reserved characters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-31</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Absolute paths in build.xml</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-29</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] SubsetConfiguration.getKeys() always appends "." delimiter to prefix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-28</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Interpolation method returns multi-valued properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-25</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] ClassCastException in XMLConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-22</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] JDK 1.3 compatibility</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-21</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] API Javadoc not in sync with jar nor with source code</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] DataConfiguration.getXXXArray() fails on empty values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-18</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] DatabaseConfiguration doesn't support List properties</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] PropertyConfiguration.save() does not take basePath into account</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLConfiguration ignore a specific encoding in XML declaration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] fix project.xml to avoid cruft in resulting jar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-11</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Unclosed streams in BasePropertiesConfiguration</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-9</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] PropertiesConfiguration doesn't handle trailing backslashes properly</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] Escaped unicode characters in the key are not unescaped</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONFIGURATION-4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">[configuration] XMLC</t>
   </si>
 </sst>
 </file>
@@ -51,7 +520,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -103,6 +572,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -152,7 +628,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -175,6 +651,18 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -250,337 +738,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:rPr>
-              <a:t>Metric 1 &amp; 6</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </c:spPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Defect density</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="004586"/>
-            </a:solidFill>
-            <a:ln w="28800">
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="x"/>
-            <c:size val="8"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="004586"/>
-              </a:solidFill>
-            </c:spPr>
-          </c:marker>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:marker>
-              <c:symbol val="x"/>
-              <c:size val="8"/>
-              <c:spPr>
-                <a:solidFill>
-                  <a:srgbClr val="004586"/>
-                </a:solidFill>
-              </c:spPr>
-            </c:marker>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:txPr>
-                <a:bodyPr/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                      <a:latin typeface="Arial"/>
-                    </a:defRPr>
-                  </a:pPr>
-                </a:p>
-              </c:txPr>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:separator> </c:separator>
-            </c:dLbl>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:separator> </c:separator>
-            <c:showLeaderLines val="0"/>
-          </c:dLbls>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0.8362</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.836</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.8354</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.8353</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8348</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.8355</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.8317</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.44E-005</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>8.75E-005</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>8.85E-005</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.00015</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:axId val="99992276"/>
-        <c:axId val="20515713"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="99992276"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="0"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Metric 1</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="20515713"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="20515713"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
-                    <a:latin typeface="Arial"/>
-                  </a:rPr>
-                  <a:t>Metric 6</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:ln>
-            <a:solidFill>
-              <a:srgbClr val="b3b3b3"/>
-            </a:solidFill>
-          </a:ln>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
-                <a:latin typeface="Arial"/>
-              </a:defRPr>
-            </a:pPr>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="99992276"/>
-        <c:crossesAt val="0"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:solidFill>
-            <a:srgbClr val="b3b3b3"/>
-          </a:solidFill>
-        </a:ln>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="span"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:srgbClr val="ffffff"/>
-    </a:solidFill>
-    <a:ln>
-      <a:noFill/>
-    </a:ln>
-  </c:spPr>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -677,6 +834,7 @@
                   </a:pPr>
                 </a:p>
               </c:txPr>
+              <c:dLblPos val="r"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="0"/>
               <c:showCatName val="0"/>
@@ -695,6 +853,7 @@
                 </a:pPr>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="r"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
@@ -703,6 +862,369 @@
             <c:separator> </c:separator>
             <c:showLeaderLines val="0"/>
           </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.8362</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.836</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.8354</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.8353</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.8348</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.8355</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.8317</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.44E-005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8.75E-005</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.85E-005</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.00015</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:axId val="37224794"/>
+        <c:axId val="57853743"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="37224794"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 2</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="57853743"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="57853743"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:rPr>
+                  <a:t>Metric 6</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln>
+            <a:solidFill>
+              <a:srgbClr val="b3b3b3"/>
+            </a:solidFill>
+          </a:ln>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="37224794"/>
+        <c:crossesAt val="0"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:solidFill>
+            <a:srgbClr val="b3b3b3"/>
+          </a:solidFill>
+        </a:ln>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="span"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:srgbClr val="ffffff"/>
+    </a:solidFill>
+    <a:ln w="9360">
+      <a:noFill/>
+    </a:ln>
+  </c:spPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0" sz="1300" spc="-1" strike="noStrike">
+                <a:latin typeface="Arial"/>
+              </a:rPr>
+              <a:t>Metric 1 &amp; 6</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </c:spPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Defect density</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="004586"/>
+            </a:solidFill>
+            <a:ln w="28800">
+              <a:noFill/>
+            </a:ln>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="8"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="004586"/>
+              </a:solidFill>
+            </c:spPr>
+          </c:marker>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:marker>
+              <c:symbol val="x"/>
+              <c:size val="8"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </c:spPr>
+            </c:marker>
+          </c:dPt>
+          <c:dLbls>
+            <c:numFmt formatCode="General" sourceLinked="1"/>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:numFmt formatCode="General" sourceLinked="1"/>
+              <c:txPr>
+                <a:bodyPr/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                      <a:latin typeface="Arial"/>
+                    </a:defRPr>
+                  </a:pPr>
+                </a:p>
+              </c:txPr>
+              <c:dLblPos val="r"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:separator> </c:separator>
+            </c:dLbl>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr b="0" sz="1000" spc="-1" strike="noStrike">
+                    <a:latin typeface="Arial"/>
+                  </a:defRPr>
+                </a:pPr>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="r"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:separator> </c:separator>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
+          <c:trendline>
+            <c:spPr>
+              <a:ln>
+                <a:solidFill>
+                  <a:srgbClr val="004586"/>
+                </a:solidFill>
+              </a:ln>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:forward val="0"/>
+            <c:backward val="0"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$8</c:f>
@@ -765,11 +1287,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="9533816"/>
-        <c:axId val="74681932"/>
+        <c:axId val="39997132"/>
+        <c:axId val="5067799"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="9533816"/>
+        <c:axId val="39997132"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -790,7 +1312,7 @@
                   <a:rPr b="0" sz="900" spc="-1" strike="noStrike">
                     <a:latin typeface="Arial"/>
                   </a:rPr>
-                  <a:t>Metric 2</a:t>
+                  <a:t>Metric 1</a:t>
                 </a:r>
               </a:p>
             </c:rich>
@@ -803,7 +1325,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -825,12 +1347,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="74681932"/>
+        <c:crossAx val="5067799"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="74681932"/>
+        <c:axId val="5067799"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -864,7 +1386,7 @@
             </a:ln>
           </c:spPr>
         </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -886,7 +1408,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="9533816"/>
+        <c:crossAx val="39997132"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -906,7 +1428,7 @@
     <a:solidFill>
       <a:srgbClr val="ffffff"/>
     </a:solidFill>
-    <a:ln>
+    <a:ln w="9360">
       <a:noFill/>
     </a:ln>
   </c:spPr>
@@ -924,9 +1446,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>225000</xdr:colOff>
+      <xdr:colOff>223920</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>149040</xdr:rowOff>
+      <xdr:rowOff>147960</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -935,7 +1457,7 @@
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="100080" y="1964520"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:ext cx="5757840" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -948,15 +1470,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>976680</xdr:colOff>
+      <xdr:colOff>779760</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>5760</xdr:rowOff>
+      <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>210960</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>156600</xdr:rowOff>
+      <xdr:colOff>12960</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>2880</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -964,8 +1486,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6611400" y="1972080"/>
-        <a:ext cx="5759640" cy="3239640"/>
+        <a:off x="6413760" y="1981800"/>
+        <a:ext cx="5758560" cy="3238560"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -983,13 +1505,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E38" activeCellId="0" sqref="E38"/>
+      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
@@ -1058,6 +1580,7 @@
       <c r="D3" s="4" t="n">
         <v>1.44E-005</v>
       </c>
+      <c r="K3" s="4"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1100,6 +1623,7 @@
       <c r="D6" s="4" t="n">
         <v>8.75E-005</v>
       </c>
+      <c r="K6" s="4"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1114,6 +1638,7 @@
       <c r="D7" s="4" t="n">
         <v>8.85E-005</v>
       </c>
+      <c r="K7" s="4"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
@@ -1128,6 +1653,7 @@
       <c r="D8" s="4" t="n">
         <v>0.00015</v>
       </c>
+      <c r="K8" s="4"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="4"/>
@@ -1142,4 +1668,1526 @@
   </headerFooter>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:G75"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A71" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="8"/>
+      <c r="B2" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="D2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8"/>
+      <c r="B3" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="8"/>
+      <c r="B4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="8"/>
+      <c r="D4" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G4" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8"/>
+      <c r="B5" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="8"/>
+      <c r="B6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="8"/>
+      <c r="B7" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="8"/>
+      <c r="B8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="8"/>
+      <c r="B9" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="8"/>
+      <c r="B10" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="8"/>
+      <c r="B11" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="8"/>
+      <c r="B12" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C12" s="8"/>
+      <c r="D12" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="8"/>
+      <c r="B13" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C13" s="8"/>
+      <c r="D13" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="8"/>
+      <c r="B14" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C14" s="8"/>
+      <c r="D14" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="8"/>
+      <c r="B15" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="C15" s="8"/>
+      <c r="D15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="8"/>
+      <c r="B16" s="6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="8"/>
+      <c r="B17" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="8"/>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="8"/>
+      <c r="B19" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="8"/>
+      <c r="B20" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="8"/>
+      <c r="B21" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C21" s="8"/>
+      <c r="D21" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F21" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="8"/>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="8"/>
+      <c r="D22" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="8"/>
+      <c r="B23" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="C23" s="8"/>
+      <c r="D23" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="8"/>
+      <c r="B24" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="8"/>
+      <c r="D24" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="8"/>
+      <c r="B25" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C25" s="8"/>
+      <c r="D25" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="8"/>
+      <c r="B26" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" s="8"/>
+      <c r="D26" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="8"/>
+      <c r="B27" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C27" s="8"/>
+      <c r="D27" s="7" t="s">
+        <v>66</v>
+      </c>
+      <c r="E27" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G27" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="8"/>
+      <c r="B28" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" s="8"/>
+      <c r="D28" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="8"/>
+      <c r="B29" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C29" s="8"/>
+      <c r="D29" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="8"/>
+      <c r="B30" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C30" s="8"/>
+      <c r="D30" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G30" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="8"/>
+      <c r="B31" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="8"/>
+      <c r="D31" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="8"/>
+      <c r="B32" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="8"/>
+      <c r="D32" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="8"/>
+      <c r="B33" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="C33" s="8"/>
+      <c r="D33" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F33" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G33" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="8"/>
+      <c r="B34" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C34" s="8"/>
+      <c r="D34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="8"/>
+      <c r="B35" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C35" s="8"/>
+      <c r="D35" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="8"/>
+      <c r="B36" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C36" s="8"/>
+      <c r="D36" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G36" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="8"/>
+      <c r="B37" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="C37" s="8"/>
+      <c r="D37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="8"/>
+      <c r="B38" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="C38" s="8"/>
+      <c r="D38" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F38" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="8"/>
+      <c r="B39" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C39" s="8"/>
+      <c r="D39" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="E39" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G39" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="8"/>
+      <c r="B40" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C40" s="8"/>
+      <c r="D40" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E40" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F40" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G40" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="8"/>
+      <c r="B41" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C41" s="8"/>
+      <c r="D41" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="E41" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F41" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G41" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="8"/>
+      <c r="B42" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C42" s="8"/>
+      <c r="D42" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F42" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G42" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="8"/>
+      <c r="B43" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C43" s="8"/>
+      <c r="D43" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="E43" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F43" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G43" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="8"/>
+      <c r="B44" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" s="8"/>
+      <c r="D44" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="E44" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F44" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G44" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="8"/>
+      <c r="B45" s="6" t="s">
+        <v>101</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="D45" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F45" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G45" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="8"/>
+      <c r="B46" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C46" s="8"/>
+      <c r="D46" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="E46" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F46" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G46" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="8"/>
+      <c r="B47" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C47" s="8"/>
+      <c r="D47" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="E47" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F47" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G47" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="8"/>
+      <c r="B48" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C48" s="8"/>
+      <c r="D48" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="E48" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F48" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G48" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="8"/>
+      <c r="B49" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C49" s="8"/>
+      <c r="D49" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="E49" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F49" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G49" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="8"/>
+      <c r="B50" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C50" s="8"/>
+      <c r="D50" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="E50" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F50" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G50" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="8"/>
+      <c r="B51" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C51" s="8"/>
+      <c r="D51" s="7" t="s">
+        <v>114</v>
+      </c>
+      <c r="E51" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F51" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G51" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A52" s="8"/>
+      <c r="B52" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C52" s="8"/>
+      <c r="D52" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="E52" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F52" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G52" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="8"/>
+      <c r="B53" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C53" s="8"/>
+      <c r="D53" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="E53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F53" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G53" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A54" s="8"/>
+      <c r="B54" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C54" s="8"/>
+      <c r="D54" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="E54" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G54" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A55" s="8"/>
+      <c r="B55" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C55" s="8"/>
+      <c r="D55" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="E55" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F55" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G55" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="56" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="8"/>
+      <c r="B56" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C56" s="8"/>
+      <c r="D56" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="E56" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F56" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G56" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A57" s="8"/>
+      <c r="B57" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C57" s="8"/>
+      <c r="D57" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="E57" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F57" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G57" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A58" s="8"/>
+      <c r="B58" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="8"/>
+      <c r="D58" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="E58" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F58" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G58" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A59" s="8"/>
+      <c r="B59" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C59" s="8"/>
+      <c r="D59" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="E59" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F59" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G59" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A60" s="8"/>
+      <c r="B60" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="8"/>
+      <c r="D60" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="E60" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F60" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G60" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A61" s="8"/>
+      <c r="B61" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C61" s="8"/>
+      <c r="D61" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="E61" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F61" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G61" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A62" s="8"/>
+      <c r="B62" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C62" s="8"/>
+      <c r="D62" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="E62" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F62" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G62" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A63" s="8"/>
+      <c r="B63" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C63" s="8"/>
+      <c r="D63" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="E63" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F63" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G63" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A64" s="8"/>
+      <c r="B64" s="6" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="8"/>
+      <c r="D64" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="E64" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F64" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G64" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A65" s="8"/>
+      <c r="B65" s="6" t="s">
+        <v>141</v>
+      </c>
+      <c r="C65" s="8"/>
+      <c r="D65" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="E65" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F65" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G65" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A66" s="8"/>
+      <c r="B66" s="6" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="8"/>
+      <c r="D66" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="E66" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F66" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G66" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A67" s="8"/>
+      <c r="B67" s="6" t="s">
+        <v>145</v>
+      </c>
+      <c r="C67" s="8"/>
+      <c r="D67" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="E67" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F67" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G67" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A68" s="8"/>
+      <c r="B68" s="6" t="s">
+        <v>147</v>
+      </c>
+      <c r="C68" s="8"/>
+      <c r="D68" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="E68" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F68" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G68" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A69" s="8"/>
+      <c r="B69" s="6" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" s="8"/>
+      <c r="D69" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="E69" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F69" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G69" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="70" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A70" s="8"/>
+      <c r="B70" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="C70" s="8"/>
+      <c r="D70" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="E70" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F70" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G70" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A71" s="8"/>
+      <c r="B71" s="6" t="s">
+        <v>153</v>
+      </c>
+      <c r="C71" s="8"/>
+      <c r="D71" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="E71" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F71" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G71" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A72" s="8"/>
+      <c r="B72" s="6" t="s">
+        <v>155</v>
+      </c>
+      <c r="C72" s="8"/>
+      <c r="D72" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A73" s="8"/>
+      <c r="B73" s="6" t="s">
+        <v>157</v>
+      </c>
+      <c r="C73" s="8"/>
+      <c r="D73" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="E73" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F73" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G73" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A74" s="8"/>
+      <c r="B74" s="6" t="s">
+        <v>159</v>
+      </c>
+      <c r="C74" s="8"/>
+      <c r="D74" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="E74" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F74" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G74" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A75" s="8"/>
+      <c r="B75" s="6" t="s">
+        <v>161</v>
+      </c>
+      <c r="C75" s="8"/>
+      <c r="D75" s="7" t="s">
+        <v>162</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" display="CONFIGURATION-708"/>
+    <hyperlink ref="B2" r:id="rId2" display="CONFIGURATION-651"/>
+    <hyperlink ref="B3" r:id="rId3" display="CONFIGURATION-622"/>
+    <hyperlink ref="B4" r:id="rId4" display="CONFIGURATION-593"/>
+    <hyperlink ref="B5" r:id="rId5" display="CONFIGURATION-509"/>
+    <hyperlink ref="B6" r:id="rId6" display="CONFIGURATION-491"/>
+    <hyperlink ref="B7" r:id="rId7" display="CONFIGURATION-138"/>
+    <hyperlink ref="B8" r:id="rId8" display="CONFIGURATION-137"/>
+    <hyperlink ref="B9" r:id="rId9" display="CONFIGURATION-135"/>
+    <hyperlink ref="B10" r:id="rId10" display="CONFIGURATION-134"/>
+    <hyperlink ref="B11" r:id="rId11" display="CONFIGURATION-133"/>
+    <hyperlink ref="B12" r:id="rId12" display="CONFIGURATION-132"/>
+    <hyperlink ref="B13" r:id="rId13" display="CONFIGURATION-130"/>
+    <hyperlink ref="B14" r:id="rId14" display="CONFIGURATION-129"/>
+    <hyperlink ref="B15" r:id="rId15" display="CONFIGURATION-127"/>
+    <hyperlink ref="B16" r:id="rId16" display="CONFIGURATION-125"/>
+    <hyperlink ref="B17" r:id="rId17" display="CONFIGURATION-123"/>
+    <hyperlink ref="B18" r:id="rId18" display="CONFIGURATION-122"/>
+    <hyperlink ref="B19" r:id="rId19" display="CONFIGURATION-121"/>
+    <hyperlink ref="B20" r:id="rId20" display="CONFIGURATION-120"/>
+    <hyperlink ref="B21" r:id="rId21" display="CONFIGURATION-119"/>
+    <hyperlink ref="B22" r:id="rId22" display="CONFIGURATION-118"/>
+    <hyperlink ref="B23" r:id="rId23" display="CONFIGURATION-117"/>
+    <hyperlink ref="B24" r:id="rId24" display="CONFIGURATION-116"/>
+    <hyperlink ref="B25" r:id="rId25" display="CONFIGURATION-115"/>
+    <hyperlink ref="B26" r:id="rId26" display="CONFIGURATION-114"/>
+    <hyperlink ref="B27" r:id="rId27" display="CONFIGURATION-112"/>
+    <hyperlink ref="B28" r:id="rId28" display="CONFIGURATION-111"/>
+    <hyperlink ref="B29" r:id="rId29" display="CONFIGURATION-109"/>
+    <hyperlink ref="B30" r:id="rId30" display="CONFIGURATION-106"/>
+    <hyperlink ref="B31" r:id="rId31" display="CONFIGURATION-105"/>
+    <hyperlink ref="B32" r:id="rId32" display="CONFIGURATION-104"/>
+    <hyperlink ref="B33" r:id="rId33" display="CONFIGURATION-103"/>
+    <hyperlink ref="B34" r:id="rId34" display="CONFIGURATION-101"/>
+    <hyperlink ref="B35" r:id="rId35" display="CONFIGURATION-100"/>
+    <hyperlink ref="B36" r:id="rId36" display="CONFIGURATION-99"/>
+    <hyperlink ref="B37" r:id="rId37" display="CONFIGURATION-97"/>
+    <hyperlink ref="B38" r:id="rId38" display="CONFIGURATION-96"/>
+    <hyperlink ref="B39" r:id="rId39" display="CONFIGURATION-92"/>
+    <hyperlink ref="B40" r:id="rId40" display="CONFIGURATION-91"/>
+    <hyperlink ref="B41" r:id="rId41" display="CONFIGURATION-88"/>
+    <hyperlink ref="B42" r:id="rId42" display="CONFIGURATION-87"/>
+    <hyperlink ref="B43" r:id="rId43" display="CONFIGURATION-86"/>
+    <hyperlink ref="B44" r:id="rId44" display="CONFIGURATION-85"/>
+    <hyperlink ref="B45" r:id="rId45" display="CONFIGURATION-84"/>
+    <hyperlink ref="B46" r:id="rId46" display="CONFIGURATION-83"/>
+    <hyperlink ref="B47" r:id="rId47" display="CONFIGURATION-82"/>
+    <hyperlink ref="B48" r:id="rId48" display="CONFIGURATION-81"/>
+    <hyperlink ref="B49" r:id="rId49" display="CONFIGURATION-80"/>
+    <hyperlink ref="B50" r:id="rId50" display="CONFIGURATION-76"/>
+    <hyperlink ref="B51" r:id="rId51" display="CONFIGURATION-75"/>
+    <hyperlink ref="B52" r:id="rId52" display="CONFIGURATION-74"/>
+    <hyperlink ref="B53" r:id="rId53" display="CONFIGURATION-71"/>
+    <hyperlink ref="B54" r:id="rId54" display="CONFIGURATION-69"/>
+    <hyperlink ref="B55" r:id="rId55" display="CONFIGURATION-65"/>
+    <hyperlink ref="B56" r:id="rId56" display="CONFIGURATION-63"/>
+    <hyperlink ref="B57" r:id="rId57" display="CONFIGURATION-57"/>
+    <hyperlink ref="B58" r:id="rId58" display="CONFIGURATION-47"/>
+    <hyperlink ref="B59" r:id="rId59" display="CONFIGURATION-44"/>
+    <hyperlink ref="B60" r:id="rId60" display="CONFIGURATION-32"/>
+    <hyperlink ref="B61" r:id="rId61" display="CONFIGURATION-31"/>
+    <hyperlink ref="B62" r:id="rId62" display="CONFIGURATION-29"/>
+    <hyperlink ref="B63" r:id="rId63" display="CONFIGURATION-28"/>
+    <hyperlink ref="B64" r:id="rId64" display="CONFIGURATION-25"/>
+    <hyperlink ref="B65" r:id="rId65" display="CONFIGURATION-22"/>
+    <hyperlink ref="B66" r:id="rId66" display="CONFIGURATION-21"/>
+    <hyperlink ref="B67" r:id="rId67" display="CONFIGURATION-19"/>
+    <hyperlink ref="B68" r:id="rId68" display="CONFIGURATION-18"/>
+    <hyperlink ref="B69" r:id="rId69" display="CONFIGURATION-15"/>
+    <hyperlink ref="B70" r:id="rId70" display="CONFIGURATION-13"/>
+    <hyperlink ref="B71" r:id="rId71" display="CONFIGURATION-12"/>
+    <hyperlink ref="B72" r:id="rId72" display="CONFIGURATION-11"/>
+    <hyperlink ref="B73" r:id="rId73" display="CONFIGURATION-9"/>
+    <hyperlink ref="B74" r:id="rId74" display="CONFIGURATION-8"/>
+    <hyperlink ref="B75" r:id="rId75" display="CONFIGURATION-4"/>
+  </hyperlinks>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
 </file>
--- a/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&6.xlsx
+++ b/Project 4 Apache Common Configuration/Correlation Analysis/Correlation12&6.xlsx
@@ -11,6 +11,9 @@
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
   </sheets>
+  <externalReferences>
+    <externalReference r:id="rId4"/>
+  </externalReferences>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
@@ -21,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="382" uniqueCount="163">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="165">
   <si>
     <t xml:space="preserve">Version</t>
   </si>
@@ -35,10 +38,16 @@
     <t xml:space="preserve">Defect density</t>
   </si>
   <si>
-    <t xml:space="preserve">Branch &amp; Defect Density Correlation</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Statement &amp; Defect Density Correlation</t>
+    <t xml:space="preserve">Branch &amp; Defect Density Correlation(Pearson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement &amp; Defect Density Correlation(Pearson)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Branch &amp; Defect Density Correlation(Spearman)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Statement &amp; Defect Density Correlation(Spearman)</t>
   </si>
   <si>
     <t xml:space="preserve">2.0</t>
@@ -737,7 +746,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -938,11 +947,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="37224794"/>
-        <c:axId val="57853743"/>
+        <c:axId val="83549398"/>
+        <c:axId val="62699978"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="37224794"/>
+        <c:axId val="83549398"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -998,12 +1007,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="57853743"/>
+        <c:crossAx val="62699978"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="57853743"/>
+        <c:axId val="62699978"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1059,7 +1068,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="37224794"/>
+        <c:crossAx val="83549398"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1086,7 +1095,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
@@ -1287,11 +1296,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="39997132"/>
-        <c:axId val="5067799"/>
+        <c:axId val="10035190"/>
+        <c:axId val="41691654"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="39997132"/>
+        <c:axId val="10035190"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1347,12 +1356,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="5067799"/>
+        <c:crossAx val="41691654"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="5067799"/>
+        <c:axId val="41691654"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1408,7 +1417,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="39997132"/>
+        <c:crossAx val="10035190"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1442,13 +1451,13 @@
       <xdr:col>0</xdr:col>
       <xdr:colOff>100080</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>160560</xdr:rowOff>
+      <xdr:rowOff>160920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>223920</xdr:colOff>
+      <xdr:colOff>223200</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>147960</xdr:rowOff>
+      <xdr:rowOff>147600</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1456,8 +1465,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="100080" y="1964520"/>
-        <a:ext cx="5757840" cy="3238560"/>
+        <a:off x="100080" y="2143080"/>
+        <a:ext cx="5757120" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1470,15 +1479,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>779760</xdr:colOff>
+      <xdr:colOff>780120</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>15480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>12960</xdr:colOff>
+      <xdr:colOff>12600</xdr:colOff>
       <xdr:row>31</xdr:row>
-      <xdr:rowOff>2880</xdr:rowOff>
+      <xdr:rowOff>2160</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
       <xdr:nvGraphicFramePr>
@@ -1486,8 +1495,8 @@
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="6413760" y="1981800"/>
-        <a:ext cx="5758560" cy="3238560"/>
+        <a:off x="6414120" y="2160360"/>
+        <a:ext cx="5757840" cy="3237840"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -1500,18 +1509,31 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <sheetNames>
+      <sheetName val="Sheet1"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:M13"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G9" activeCellId="0" sqref="G9"/>
+      <selection pane="topLeft" activeCell="H6" activeCellId="0" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.66796875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="7.54"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="14.88"/>
@@ -1566,8 +1588,32 @@
         <f aca="false">PEARSON(C2:C8,D2:D8)</f>
         <v>0.6000434903449</v>
       </c>
-    </row>
-    <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B2,B$2:B$8,1)</f>
+        <v>7</v>
+      </c>
+      <c r="I2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C2,C$2:C$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="J2" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D2,D$2:D$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K2" s="0" t="n">
+        <f aca="false">H2-J2</f>
+        <v>5</v>
+      </c>
+      <c r="L2" s="0" t="n">
+        <f aca="false">K2^2</f>
+        <v>25</v>
+      </c>
+      <c r="M2" s="0" t="n">
+        <f aca="false">I2-[1]Sheet1!P16</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="26.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="0" t="n">
         <v>2.5</v>
       </c>
@@ -1580,7 +1626,36 @@
       <c r="D3" s="4" t="n">
         <v>1.44E-005</v>
       </c>
-      <c r="K3" s="4"/>
+      <c r="E3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B3,B$2:B$8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="I3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C3,C$2:C$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="J3" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D3,D$2:D$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="K3" s="0" t="n">
+        <f aca="false">H3-J3</f>
+        <v>2</v>
+      </c>
+      <c r="L3" s="0" t="n">
+        <f aca="false">K3^2</f>
+        <v>4</v>
+      </c>
+      <c r="M3" s="0" t="n">
+        <f aca="false">I3-[1]Sheet1!P17</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
@@ -1595,6 +1670,37 @@
       <c r="D4" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="E4" s="0" t="n">
+        <v>-0.428571429</v>
+      </c>
+      <c r="F4" s="0" t="n">
+        <f aca="false">PEARSON(I2:I8,J2:J8)</f>
+        <v>0.5</v>
+      </c>
+      <c r="H4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B4,B$2:B$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="I4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C4,C$2:C$8,1)</f>
+        <v>4</v>
+      </c>
+      <c r="J4" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D4,D$2:D$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K4" s="0" t="n">
+        <f aca="false">H4-J4</f>
+        <v>2</v>
+      </c>
+      <c r="L4" s="0" t="n">
+        <f aca="false">K4^2</f>
+        <v>4</v>
+      </c>
+      <c r="M4" s="0" t="n">
+        <f aca="false">I4-[1]Sheet1!P18</f>
+        <v>4</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="0" t="n">
@@ -1609,6 +1715,30 @@
       <c r="D5" s="0" t="n">
         <v>0</v>
       </c>
+      <c r="H5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B5,B$2:B$8,1)</f>
+        <v>3</v>
+      </c>
+      <c r="I5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C5,C$2:C$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="J5" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D5,D$2:D$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="K5" s="0" t="n">
+        <f aca="false">H5-J5</f>
+        <v>1</v>
+      </c>
+      <c r="L5" s="0" t="n">
+        <f aca="false">K5^2</f>
+        <v>1</v>
+      </c>
+      <c r="M5" s="0" t="n">
+        <f aca="false">I5-[1]Sheet1!P19</f>
+        <v>2</v>
+      </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
@@ -1623,7 +1753,30 @@
       <c r="D6" s="4" t="n">
         <v>8.75E-005</v>
       </c>
-      <c r="K6" s="4"/>
+      <c r="H6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B6,B$2:B$8,1)</f>
+        <v>2</v>
+      </c>
+      <c r="I6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C6,C$2:C$8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="J6" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D6,D$2:D$8,1)</f>
+        <v>5</v>
+      </c>
+      <c r="K6" s="0" t="n">
+        <f aca="false">H6-J6</f>
+        <v>-3</v>
+      </c>
+      <c r="L6" s="0" t="n">
+        <f aca="false">K6^2</f>
+        <v>9</v>
+      </c>
+      <c r="M6" s="0" t="n">
+        <f aca="false">I6-[1]Sheet1!P20</f>
+        <v>1</v>
+      </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="0" t="n">
@@ -1638,11 +1791,34 @@
       <c r="D7" s="4" t="n">
         <v>8.85E-005</v>
       </c>
-      <c r="K7" s="4"/>
+      <c r="H7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B7,B$2:B$8,1)</f>
+        <v>5</v>
+      </c>
+      <c r="I7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C7,C$2:C$8,1)</f>
+        <v>7</v>
+      </c>
+      <c r="J7" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D7,D$2:D$8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="K7" s="0" t="n">
+        <f aca="false">H7-J7</f>
+        <v>-1</v>
+      </c>
+      <c r="L7" s="0" t="n">
+        <f aca="false">K7^2</f>
+        <v>1</v>
+      </c>
+      <c r="M7" s="0" t="n">
+        <f aca="false">I7-[1]Sheet1!P21</f>
+        <v>7</v>
+      </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="5" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B8" s="0" t="n">
         <v>0.8317</v>
@@ -1653,10 +1829,63 @@
       <c r="D8" s="4" t="n">
         <v>0.00015</v>
       </c>
-      <c r="K8" s="4"/>
+      <c r="H8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(B8,B$2:B$8,1)</f>
+        <v>1</v>
+      </c>
+      <c r="I8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(C8,C$2:C$8,1)</f>
+        <v>6</v>
+      </c>
+      <c r="J8" s="0" t="n">
+        <f aca="false">_xlfn.RANK.AVG(D8,D$2:D$8,1)</f>
+        <v>7</v>
+      </c>
+      <c r="K8" s="0" t="n">
+        <f aca="false">H8-J8</f>
+        <v>-6</v>
+      </c>
+      <c r="L8" s="0" t="n">
+        <f aca="false">K8^2</f>
+        <v>36</v>
+      </c>
+      <c r="M8" s="0" t="n">
+        <f aca="false">I8-[1]Sheet1!P22</f>
+        <v>6</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="D9" s="4"/>
+      <c r="L9" s="0" t="n">
+        <f aca="false">SUM(L2:L8)</f>
+        <v>80</v>
+      </c>
+      <c r="M9" s="0" t="n">
+        <f aca="false">SUM(M2:M8)</f>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L10" s="0" t="n">
+        <f aca="false">1-L9*6/(7^3-7)</f>
+        <v>-0.428571428571429</v>
+      </c>
+      <c r="M10" s="0" t="n">
+        <f aca="false">1-M9*6/(7^3-7)</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J11" s="0" t="n">
+        <f aca="false">PEARSON(H2:H8,J2:J8)</f>
+        <v>-0.481812055829716</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="J13" s="0" t="n">
+        <f aca="false">PEARSON(I2:I8,J2:J8)</f>
+        <v>0.5</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1681,1427 +1910,1427 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.58984375" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="6" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="8"/>
       <c r="B2" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C2" s="8"/>
       <c r="D2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="7" t="s">
         <v>14</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8"/>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G3" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="8"/>
       <c r="B4" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="8"/>
       <c r="D4" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8"/>
       <c r="B5" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="8"/>
       <c r="B6" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C6" s="8"/>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="8"/>
       <c r="B7" s="6" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C7" s="8"/>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="8"/>
       <c r="B8" s="6" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8"/>
       <c r="D8" s="7" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="8"/>
       <c r="B9" s="6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="C9" s="8"/>
       <c r="D9" s="7" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="8"/>
       <c r="B10" s="6" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C10" s="8"/>
       <c r="D10" s="7" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="8"/>
       <c r="B11" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="C11" s="8"/>
       <c r="D11" s="7" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="8"/>
       <c r="B12" s="6" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C12" s="8"/>
       <c r="D12" s="7" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="8"/>
       <c r="B13" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C13" s="8"/>
       <c r="D13" s="7" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="8"/>
       <c r="B14" s="6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C14" s="8"/>
       <c r="D14" s="7" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="8"/>
       <c r="B15" s="6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C15" s="8"/>
       <c r="D15" s="7" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="8"/>
       <c r="B16" s="6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C16" s="8"/>
       <c r="D16" s="7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="8"/>
       <c r="B17" s="6" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C17" s="8"/>
       <c r="D17" s="7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="8"/>
       <c r="B18" s="6" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C18" s="8"/>
       <c r="D18" s="7" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="8"/>
       <c r="B19" s="6" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="C19" s="8"/>
       <c r="D19" s="7" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="8"/>
       <c r="B20" s="6" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="C20" s="8"/>
       <c r="D20" s="7" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="8"/>
       <c r="B21" s="6" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C21" s="8"/>
       <c r="D21" s="7" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="8"/>
       <c r="B22" s="6" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C22" s="8"/>
       <c r="D22" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="8"/>
       <c r="B23" s="6" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="C23" s="8"/>
       <c r="D23" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="8"/>
       <c r="B24" s="6" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="C24" s="8"/>
       <c r="D24" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="8"/>
       <c r="B25" s="6" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C25" s="8"/>
       <c r="D25" s="7" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="8"/>
       <c r="B26" s="6" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C26" s="8"/>
       <c r="D26" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="8"/>
       <c r="B27" s="6" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="C27" s="8"/>
       <c r="D27" s="7" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="8"/>
       <c r="B28" s="6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="C28" s="8"/>
       <c r="D28" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="8"/>
       <c r="B29" s="6" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C29" s="8"/>
       <c r="D29" s="7" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="8"/>
       <c r="B30" s="6" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="C30" s="8"/>
       <c r="D30" s="7" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="8"/>
       <c r="B31" s="6" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C31" s="8"/>
       <c r="D31" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="8"/>
       <c r="B32" s="6" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="C32" s="8"/>
       <c r="D32" s="7" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F32" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G32" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="8"/>
       <c r="B33" s="6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C33" s="8"/>
       <c r="D33" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="8"/>
       <c r="B34" s="6" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C34" s="8"/>
       <c r="D34" s="7" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="8"/>
       <c r="B35" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="C35" s="8"/>
       <c r="D35" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="8"/>
       <c r="B36" s="6" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C36" s="8"/>
       <c r="D36" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="8"/>
       <c r="B37" s="6" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="C37" s="8"/>
       <c r="D37" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G37" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="8"/>
       <c r="B38" s="6" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C38" s="8"/>
       <c r="D38" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="8"/>
       <c r="B39" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C39" s="8"/>
       <c r="D39" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="8"/>
       <c r="B40" s="6" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C40" s="8"/>
       <c r="D40" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E40" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F40" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G40" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="8"/>
       <c r="B41" s="6" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="C41" s="8"/>
       <c r="D41" s="7" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="E41" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F41" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G41" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="8"/>
       <c r="B42" s="6" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C42" s="8"/>
       <c r="D42" s="7" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="E42" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F42" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G42" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="8"/>
       <c r="B43" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C43" s="8"/>
       <c r="D43" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E43" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F43" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G43" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="8"/>
       <c r="B44" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C44" s="8"/>
       <c r="D44" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E44" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F44" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G44" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="8"/>
       <c r="B45" s="6" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="C45" s="8"/>
       <c r="D45" s="7" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A46" s="8"/>
       <c r="B46" s="6" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="C46" s="8"/>
       <c r="D46" s="7" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E46" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F46" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G46" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="8"/>
       <c r="B47" s="6" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C47" s="8"/>
       <c r="D47" s="7" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="E47" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F47" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G47" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="8"/>
       <c r="B48" s="6" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="C48" s="8"/>
       <c r="D48" s="7" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E48" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F48" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G48" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="8"/>
       <c r="B49" s="6" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C49" s="8"/>
       <c r="D49" s="7" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E49" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F49" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G49" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="8"/>
       <c r="B50" s="6" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="C50" s="8"/>
       <c r="D50" s="7" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E50" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F50" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G50" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="8"/>
       <c r="B51" s="6" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C51" s="8"/>
       <c r="D51" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E51" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F51" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G51" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="8"/>
       <c r="B52" s="6" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="C52" s="8"/>
       <c r="D52" s="7" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E52" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F52" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G52" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="8"/>
       <c r="B53" s="6" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="C53" s="8"/>
       <c r="D53" s="7" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E53" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F53" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G53" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="8"/>
       <c r="B54" s="6" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C54" s="8"/>
       <c r="D54" s="7" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="E54" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F54" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G54" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="8"/>
       <c r="B55" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C55" s="8"/>
       <c r="D55" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E55" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F55" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G55" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="113.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="8"/>
       <c r="B56" s="6" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C56" s="8"/>
       <c r="D56" s="7" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E56" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F56" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G56" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="8"/>
       <c r="B57" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C57" s="8"/>
       <c r="D57" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E57" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F57" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G57" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="8"/>
       <c r="B58" s="6" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="C58" s="8"/>
       <c r="D58" s="7" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E58" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F58" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G58" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="8"/>
       <c r="B59" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C59" s="8"/>
       <c r="D59" s="7" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E59" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F59" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G59" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="8"/>
       <c r="B60" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C60" s="8"/>
       <c r="D60" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E60" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F60" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G60" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="8"/>
       <c r="B61" s="6" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="C61" s="8"/>
       <c r="D61" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="8"/>
       <c r="B62" s="6" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="C62" s="8"/>
       <c r="D62" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E62" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F62" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G62" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="8"/>
       <c r="B63" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C63" s="8"/>
       <c r="D63" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E63" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F63" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G63" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A64" s="8"/>
       <c r="B64" s="6" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="C64" s="8"/>
       <c r="D64" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E64" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F64" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G64" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A65" s="8"/>
       <c r="B65" s="6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="C65" s="8"/>
       <c r="D65" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="E65" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F65" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G65" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A66" s="8"/>
       <c r="B66" s="6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="C66" s="8"/>
       <c r="D66" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E66" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F66" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G66" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A67" s="8"/>
       <c r="B67" s="6" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="C67" s="8"/>
       <c r="D67" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="E67" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F67" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G67" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A68" s="8"/>
       <c r="B68" s="6" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C68" s="8"/>
       <c r="D68" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="E68" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F68" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G68" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A69" s="8"/>
       <c r="B69" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C69" s="8"/>
       <c r="D69" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E69" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F69" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G69" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="91" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="8"/>
       <c r="B70" s="6" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="C70" s="8"/>
       <c r="D70" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E70" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F70" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G70" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="8"/>
       <c r="B71" s="6" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="C71" s="8"/>
       <c r="D71" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E71" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F71" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G71" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="68.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A72" s="8"/>
       <c r="B72" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C72" s="8"/>
       <c r="D72" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="102.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A73" s="8"/>
       <c r="B73" s="6" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="C73" s="8"/>
       <c r="D73" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="E73" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F73" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G73" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="79.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A74" s="8"/>
       <c r="B74" s="6" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="C74" s="8"/>
       <c r="D74" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E74" s="7" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F74" s="7" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="G74" s="7" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="8"/>
       <c r="B75" s="6" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="C75" s="8"/>
       <c r="D75" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
